--- a/Data/Osteomyelitis_Underlying_Mortality_Trend.xlsx
+++ b/Data/Osteomyelitis_Underlying_Mortality_Trend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksanaka/Desktop/Research/Osteomyelitis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935E6FAD-90AA-1647-BCD7-0A98391C58FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F718BCB6-6FA8-904C-841A-1A40A105D591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="2360" windowWidth="29920" windowHeight="16980" activeTab="1" xr2:uid="{2EA96B07-7AE9-094E-8C89-FAB3BB458E3E}"/>
+    <workbookView xWindow="1360" yWindow="760" windowWidth="29920" windowHeight="16980" activeTab="1" xr2:uid="{2EA96B07-7AE9-094E-8C89-FAB3BB458E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Cause of Death, 1999-2" sheetId="1" r:id="rId1"/>
@@ -2101,7 +2101,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2124,8 +2124,8 @@
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.38</v>
+      <c r="B2">
+        <v>0.48</v>
       </c>
       <c r="C2" s="1">
         <v>0.36</v>
@@ -2138,8 +2138,8 @@
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.44</v>
+      <c r="B3">
+        <v>0.55000000000000004</v>
       </c>
       <c r="C3" s="1">
         <v>0.41</v>
@@ -2152,8 +2152,8 @@
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.48</v>
+      <c r="B4">
+        <v>0.61</v>
       </c>
       <c r="C4" s="1">
         <v>0.46</v>
@@ -2166,8 +2166,8 @@
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.5</v>
+      <c r="B5">
+        <v>0.63</v>
       </c>
       <c r="C5" s="1">
         <v>0.47</v>
@@ -2180,8 +2180,8 @@
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.51</v>
+      <c r="B6">
+        <v>0.66</v>
       </c>
       <c r="C6" s="1">
         <v>0.49</v>
@@ -2194,8 +2194,8 @@
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.54</v>
+      <c r="B7">
+        <v>0.68</v>
       </c>
       <c r="C7" s="1">
         <v>0.51</v>
@@ -2208,8 +2208,8 @@
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.52</v>
+      <c r="B8">
+        <v>0.66</v>
       </c>
       <c r="C8" s="1">
         <v>0.49</v>
@@ -2222,8 +2222,8 @@
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.5</v>
+      <c r="B9">
+        <v>0.64</v>
       </c>
       <c r="C9" s="1">
         <v>0.48</v>
@@ -2236,8 +2236,8 @@
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.52</v>
+      <c r="B10">
+        <v>0.66</v>
       </c>
       <c r="C10" s="1">
         <v>0.49</v>
@@ -2250,8 +2250,8 @@
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.49</v>
+      <c r="B11">
+        <v>0.63</v>
       </c>
       <c r="C11" s="1">
         <v>0.47</v>
@@ -2264,8 +2264,8 @@
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.49</v>
+      <c r="B12">
+        <v>0.62</v>
       </c>
       <c r="C12" s="1">
         <v>0.46</v>
@@ -2278,8 +2278,8 @@
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.49</v>
+      <c r="B13">
+        <v>0.62</v>
       </c>
       <c r="C13" s="1">
         <v>0.46</v>
@@ -2292,8 +2292,8 @@
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.53</v>
+      <c r="B14">
+        <v>0.67</v>
       </c>
       <c r="C14" s="1">
         <v>0.5</v>
@@ -2306,8 +2306,8 @@
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.54</v>
+      <c r="B15">
+        <v>0.69</v>
       </c>
       <c r="C15" s="1">
         <v>0.51</v>
@@ -2320,8 +2320,8 @@
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.53</v>
+      <c r="B16">
+        <v>0.67</v>
       </c>
       <c r="C16" s="1">
         <v>0.5</v>
@@ -2334,8 +2334,8 @@
       <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.55000000000000004</v>
+      <c r="B17">
+        <v>0.7</v>
       </c>
       <c r="C17" s="1">
         <v>0.53</v>
@@ -2348,8 +2348,8 @@
       <c r="A18">
         <v>2015</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.63</v>
+      <c r="B18">
+        <v>0.8</v>
       </c>
       <c r="C18" s="1">
         <v>0.6</v>
@@ -2362,8 +2362,8 @@
       <c r="A19">
         <v>2016</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.63</v>
+      <c r="B19">
+        <v>0.81</v>
       </c>
       <c r="C19" s="1">
         <v>0.61</v>
@@ -2376,8 +2376,8 @@
       <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.7</v>
+      <c r="B20">
+        <v>0.89</v>
       </c>
       <c r="C20" s="1">
         <v>0.67</v>
@@ -2390,8 +2390,8 @@
       <c r="A21">
         <v>2018</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.71</v>
+      <c r="B21">
+        <v>0.91</v>
       </c>
       <c r="C21" s="1">
         <v>0.69</v>
@@ -2404,8 +2404,8 @@
       <c r="A22">
         <v>2019</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.79</v>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>0.76</v>
@@ -2418,8 +2418,8 @@
       <c r="A23">
         <v>2020</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.87</v>
+      <c r="B23">
+        <v>1.1100000000000001</v>
       </c>
       <c r="C23" s="1">
         <v>0.84</v>
@@ -2432,8 +2432,8 @@
       <c r="A24">
         <v>2021</v>
       </c>
-      <c r="B24">
-        <v>1.04</v>
+      <c r="B24" s="1">
+        <v>1.33</v>
       </c>
       <c r="C24">
         <v>1.01</v>
@@ -2446,8 +2446,8 @@
       <c r="A25">
         <v>2022</v>
       </c>
-      <c r="B25">
-        <v>1.08</v>
+      <c r="B25" s="1">
+        <v>1.38</v>
       </c>
       <c r="C25">
         <v>1.05</v>
@@ -2460,8 +2460,8 @@
       <c r="A26">
         <v>2023</v>
       </c>
-      <c r="B26">
-        <v>1.1100000000000001</v>
+      <c r="B26" s="1">
+        <v>1.41</v>
       </c>
       <c r="C26">
         <v>1.08</v>
